--- a/mcmaster_excel/Steel_Pan_Head_Screws_with_Split_Lock_Washer.xlsx
+++ b/mcmaster_excel/Steel_Pan_Head_Screws_with_Split_Lock_Washer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,221 +434,133 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>OD</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Thick.</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr"/>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1/4"</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.219"</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.080"</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.222"</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.034"</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>No. 1</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>ASME B18.13</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>93405A106</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>$9.14</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>4-40</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
+          <t>Washer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.219"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.080"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.222"</t>
+          <t>OD</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.034"</t>
+          <t>Thick.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>DriveSize</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ASME B18.13</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>93405A107</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>15.21</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>4-40</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -693,17 +605,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>93405A108</t>
+          <t>93405A106</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>$9.14</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -720,7 +632,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -765,17 +677,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>93405A110</t>
+          <t>93405A107</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>15.21</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -792,7 +704,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -802,17 +714,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.219"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.097"</t>
+          <t>0.080"</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.261"</t>
+          <t>0.222"</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -822,7 +734,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -837,22 +749,22 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>93405A144</t>
+          <t>93405A108</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>9.61</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -864,7 +776,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -874,17 +786,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.219"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.097"</t>
+          <t>0.080"</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.261"</t>
+          <t>0.222"</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -894,7 +806,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -914,17 +826,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>93405A145</t>
+          <t>93405A110</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -936,7 +848,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -981,17 +893,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>93405A146</t>
+          <t>93405A144</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>9.61</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1008,7 +920,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1058,12 +970,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>93405A148</t>
+          <t>93405A145</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1080,7 +992,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1130,12 +1042,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>93405A150</t>
+          <t>93405A146</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>7.67</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1152,7 +1064,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1162,22 +1074,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.322"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.115"</t>
+          <t>0.097"</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.319"</t>
+          <t>0.261"</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.040"</t>
+          <t>0.034"</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1202,17 +1114,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>93405A192</t>
+          <t>93405A148</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>7.75</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1224,7 +1136,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1234,22 +1146,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.322"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.115"</t>
+          <t>0.097"</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.319"</t>
+          <t>0.261"</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.040"</t>
+          <t>0.034"</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1274,17 +1186,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>93405A194</t>
+          <t>93405A150</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>7.67</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1296,7 +1208,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1346,12 +1258,12 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>93405A196</t>
+          <t>93405A192</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1368,7 +1280,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1418,12 +1330,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>93405A197</t>
+          <t>93405A194</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>7.90</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1440,7 +1352,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1450,22 +1362,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.373"</t>
+          <t>0.322"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.133"</t>
+          <t>0.115"</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.373"</t>
+          <t>0.319"</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.047"</t>
+          <t>0.040"</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1485,22 +1397,22 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>93405A827</t>
+          <t>93405A196</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>10.92</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1512,70 +1424,214 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>3/4"</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.322"</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.115"</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.319"</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.040"</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>ASME B18.13</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>93405A197</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3/8"</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.373"</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.133"</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.373"</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.047"</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>ASME B18.13</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>93405A827</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>1/2"</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>Fully Threaded</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>0.373"</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>0.133"</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>0.373"</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>0.047"</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>No. 2</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>60,000</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>ASME B18.13</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>93405A829</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>11.25</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>10-32</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
         </is>
